--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A1029\Desktop\2021-2022-1\数据库系统\课程设计\MyProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codefield\AndroidStudioProjects\BVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9C4028-5D35-4468-B01A-15A9957FBB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB225242-AB41-4B20-A045-806CC8E4E9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06903C3A-11F3-4B11-BBE8-B019104E3829}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{06903C3A-11F3-4B11-BBE8-B019104E3829}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="56">
   <si>
     <t>用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>acter_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>singer_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>acter_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>歌手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,6 +253,10 @@
   </si>
   <si>
     <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BE10AC-3FCE-455C-9100-AD98118B5F7F}">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -704,15 +700,29 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -835,7 +845,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -868,7 +878,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -1027,7 +1037,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1046,7 +1056,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1060,7 +1070,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
@@ -1205,7 +1215,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1224,7 +1234,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -1238,7 +1248,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
@@ -1266,7 +1276,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1285,7 +1295,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -1313,7 +1323,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -1327,7 +1337,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
@@ -1341,7 +1351,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1360,7 +1370,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -1388,7 +1398,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -1402,7 +1412,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B79" t="s">
         <v>9</v>
@@ -1416,7 +1426,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1435,7 +1445,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -1463,7 +1473,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -1477,7 +1487,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
@@ -1491,7 +1501,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1524,7 +1534,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -1538,7 +1548,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B92" t="s">
         <v>9</v>
@@ -1552,10 +1562,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
@@ -1566,7 +1576,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B94" t="s">
         <v>9</v>
@@ -1580,7 +1590,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -1613,7 +1623,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -1627,7 +1637,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B100" t="s">
         <v>9</v>
@@ -1641,10 +1651,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
@@ -1655,7 +1665,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
@@ -1669,7 +1679,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -1702,7 +1712,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -1716,7 +1726,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B108" t="s">
         <v>9</v>
@@ -1730,10 +1740,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B109" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
@@ -1744,7 +1754,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B110" t="s">
         <v>9</v>
@@ -1758,7 +1768,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -1805,7 +1815,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -1838,7 +1848,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
@@ -1852,7 +1862,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -1885,7 +1895,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -1899,19 +1909,19 @@
     </row>
     <row r="132" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D132" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1922,10 +1932,10 @@
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>12</v>
@@ -1939,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>18</v>
@@ -1956,10 +1966,10 @@
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>23</v>
@@ -1973,10 +1983,10 @@
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>12</v>
@@ -1990,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>18</v>
@@ -2007,10 +2017,10 @@
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>23</v>
@@ -2021,16 +2031,16 @@
         <v>12</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2038,16 +2048,16 @@
         <v>18</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2055,16 +2065,16 @@
         <v>23</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codefield\AndroidStudioProjects\BVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB225242-AB41-4B20-A045-806CC8E4E9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4527C72E-3F5A-4F08-89A8-4310EC70AA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{06903C3A-11F3-4B11-BBE8-B019104E3829}"/>
+    <workbookView xWindow="1530" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{06903C3A-11F3-4B11-BBE8-B019104E3829}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="56">
   <si>
     <t>用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_id`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,6 +253,10 @@
   </si>
   <si>
     <t>actor_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_pwd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +639,7 @@
   <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,10 +672,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -686,13 +686,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -700,74 +700,74 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -775,77 +775,91 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -864,10 +878,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -878,13 +892,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -892,21 +906,21 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -925,10 +939,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -939,13 +953,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -953,55 +967,55 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -1009,35 +1023,35 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1056,10 +1070,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1070,13 +1084,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -1084,21 +1098,21 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1117,10 +1131,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1131,13 +1145,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -1145,41 +1159,41 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
@@ -1187,35 +1201,35 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1234,10 +1248,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1248,13 +1262,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -1262,21 +1276,21 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1295,10 +1309,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1309,10 +1323,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -1323,13 +1337,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1337,13 +1351,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -1351,7 +1365,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1370,10 +1384,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -1384,10 +1398,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1398,13 +1412,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -1412,13 +1426,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -1426,7 +1440,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1445,10 +1459,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1459,10 +1473,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1473,13 +1487,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
@@ -1487,13 +1501,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
         <v>5</v>
@@ -1501,7 +1515,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1520,10 +1534,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1534,10 +1548,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -1548,41 +1562,41 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" t="s">
         <v>41</v>
       </c>
-      <c r="B93" t="s">
-        <v>42</v>
-      </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
         <v>5</v>
@@ -1590,7 +1604,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -1609,10 +1623,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -1623,10 +1637,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -1637,41 +1651,41 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" t="s">
         <v>41</v>
       </c>
-      <c r="B101" t="s">
-        <v>42</v>
-      </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
         <v>5</v>
@@ -1679,7 +1693,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -1698,10 +1712,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -1712,10 +1726,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -1726,41 +1740,41 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" t="s">
         <v>41</v>
       </c>
-      <c r="B109" t="s">
-        <v>42</v>
-      </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
         <v>5</v>
@@ -1768,7 +1782,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -1787,10 +1801,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -1801,10 +1815,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -1815,7 +1829,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -1834,10 +1848,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -1848,10 +1862,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -1862,7 +1876,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -1881,10 +1895,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -1895,10 +1909,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -1909,19 +1923,19 @@
     </row>
     <row r="132" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D132" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1932,13 +1946,13 @@
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1949,13 +1963,13 @@
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1966,13 +1980,13 @@
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1983,13 +1997,13 @@
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2000,13 +2014,13 @@
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2017,64 +2031,64 @@
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E139" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E140" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E141" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codefield\AndroidStudioProjects\BVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4527C72E-3F5A-4F08-89A8-4310EC70AA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9A9948-4C94-405E-AB7C-D86EF40EB273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1530" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{06903C3A-11F3-4B11-BBE8-B019104E3829}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="72">
   <si>
     <t>用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,70 @@
   </si>
   <si>
     <t>user_pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影视id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影视参演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参演id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌手id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书id、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影视id、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐id、用户id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BE10AC-3FCE-455C-9100-AD98118B5F7F}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2091,6 +2155,163 @@
         <v>31</v>
       </c>
     </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>56</v>
+      </c>
+      <c r="B148" t="s">
+        <v>57</v>
+      </c>
+      <c r="C148" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" t="s">
+        <v>60</v>
+      </c>
+      <c r="C150" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" t="s">
+        <v>61</v>
+      </c>
+      <c r="C151" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>22</v>
+      </c>
+      <c r="B152" t="s">
+        <v>62</v>
+      </c>
+      <c r="C152" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>44</v>
+      </c>
+      <c r="B153" t="s">
+        <v>60</v>
+      </c>
+      <c r="C153" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>45</v>
+      </c>
+      <c r="B154" t="s">
+        <v>61</v>
+      </c>
+      <c r="C154" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>47</v>
+      </c>
+      <c r="B155" t="s">
+        <v>62</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>63</v>
+      </c>
+      <c r="B156" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>65</v>
+      </c>
+      <c r="B157" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>67</v>
+      </c>
+      <c r="B158" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>36</v>
+      </c>
+      <c r="B159" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>37</v>
+      </c>
+      <c r="B160" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>33</v>
+      </c>
+      <c r="B161" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>38</v>
+      </c>
+      <c r="B162" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>42</v>
+      </c>
+      <c r="B163" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>43</v>
+      </c>
+      <c r="B164" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
